--- a/DOC/基本設計/基本設計_ems_社員情報更新.xlsx
+++ b/DOC/基本設計/基本設計_ems_社員情報更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC346A0-3DB0-4F80-858A-5CA47678B31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>No</t>
   </si>
@@ -146,7 +146,7 @@
     <t>n</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t>項目名称種別</t>
@@ -162,43 +162,24 @@
   </si>
   <si>
     <t>社員情報変更システム</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>グエンバンフン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員情報変更システム</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　　社内管理システム_社員情報リスト</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員ID</t>
   </si>
   <si>
     <t>権限</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>メール</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員情報変更リスト</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面</t>
@@ -214,103 +195,75 @@
   </si>
   <si>
     <t>揃い方式</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>employeeID</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>employee</t>
   </si>
   <si>
     <t>employeeName</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>label</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ステータス</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>sex</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>タイプ</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ー</t>
   </si>
   <si>
     <t>epType</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>生年月日</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>birthday</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>年齢</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>age</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入社年月日</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>joinedDate</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社齢</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>joinedTime</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>郵便番号</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>postCode</t>
@@ -320,114 +273,63 @@
   </si>
   <si>
     <t>住所</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>電話番号</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>phoneNumber</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>authority</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>mailAdress</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員情報更新</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員情報更新</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人番号</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>テキスト</t>
-  </si>
-  <si>
-    <t>テキスト</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ボダン</t>
   </si>
   <si>
     <t>18</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>該当行の「社員ID」を持ち、DBからデータを取得して、画面に表示する</t>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2)</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve"> ①</t>
@@ -446,7 +348,6 @@
   </si>
   <si>
     <t>社員情報をデータベースに更新する。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>左</t>
@@ -464,411 +365,130 @@
     <t xml:space="preserve">radio </t>
   </si>
   <si>
-    <t>IO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>joinedDateString</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>postCode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">radio </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>personNumber</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>郵便番号が数字じゃない場合</t>
-    <rPh sb="5" eb="7">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員氏名が空白の場合</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入社年月日が空白の場合</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>郵便番号が空白の場合</t>
-    <rPh sb="0" eb="4">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>住所が空白の場合</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>電話番号が空白の場合</t>
-    <rPh sb="0" eb="4">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>電話番号が数字じゃない場合</t>
-    <rPh sb="0" eb="4">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人番号が空白の場合</t>
-    <rPh sb="0" eb="4">
-      <t>コジンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人番号の長さが12文字越える場合</t>
-    <rPh sb="0" eb="4">
-      <t>コジンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"個人番号は半角１２桁数字で入力してください。"とメッセージ表示</t>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人番号が数字じゃない場合</t>
-    <rPh sb="0" eb="4">
-      <t>コジンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面入力後、「更新」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面入力されたデータの正しさをチェックする。正しくない場合、エラーメッセージを表示し、更新終了。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1)</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>年齢の自動計算</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社齢の自動計算</t>
-    <rPh sb="0" eb="2">
-      <t>シャレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入社年月日を入力後、社齢が自動計算される。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクゴ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シャレイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>生年月日を入力後、年齢が再計算される。</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3)</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>更新処理</t>
   </si>
   <si>
     <t>社員氏名の長さチェック</t>
-    <rPh sb="5" eb="6">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>住所の長さチェック</t>
-    <rPh sb="3" eb="4">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ラジオボタン</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>親画面の「更新」ボタンが押された場合、</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>長さが50文字越える場合"社員氏名は50文字以下で入力してください。"　とメッセージ表示</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>モジコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>長さが200文字越える場合"社員氏名は200文字以下で入力してください。"　とメッセージ表示</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"社員氏名を入力してください。"　とメッセージ表示</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"入社年月日を入力してください。例：20231031"　とメッセージ表示</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>”生年月日を入力してください”　と　メッセージ表示</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人情報更新</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>生年月日が選択しない場合</t>
-    <rPh sb="0" eb="2">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"郵便番号を入力してください。"　とメッセージ表示</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"入社年月日に数字のみを入力してください。"と　メッセージ表示</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"住所を入力してください。"　とメッセージ表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"電話番号を入力してください。"　とメッセージ表示</t>
-    <rPh sb="1" eb="5">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"電話番号に数字のみを入力してください。"と　メッセージ表示</t>
-    <rPh sb="1" eb="5">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"個人番号を入力してください。"　とメッセージ表示</t>
-    <rPh sb="1" eb="5">
-      <t>コジンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"個人番号に数字のみを入力してください。"と　メッセージ表示</t>
-    <rPh sb="1" eb="5">
-      <t>コジンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3788,7 +3408,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3802,21 +3422,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="914400"/>
-          <a:ext cx="1790700" cy="828675"/>
+          <a:off x="152400" y="914400"/>
+          <a:ext cx="1685925" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3910,21 +3524,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="1152525"/>
-          <a:ext cx="419100" cy="133350"/>
+          <a:off x="266700" y="1152525"/>
+          <a:ext cx="390525" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3975,21 +3583,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="1533525"/>
-          <a:ext cx="552450" cy="9525"/>
+          <a:off x="228600" y="1533525"/>
+          <a:ext cx="523875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4018,31 +3620,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>89534</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83819</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464820" y="2832734"/>
-          <a:ext cx="1522095" cy="451485"/>
+          <a:off x="447675" y="2828925"/>
+          <a:ext cx="1447800" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4096,21 +3692,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2114550" y="3038475"/>
-          <a:ext cx="1800225" cy="0"/>
+          <a:off x="1990725" y="3038475"/>
+          <a:ext cx="1695450" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4149,21 +3739,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="2905125"/>
-          <a:ext cx="2247900" cy="333375"/>
+          <a:off x="3857625" y="2905125"/>
+          <a:ext cx="2114550" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4230,21 +3814,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2105025" y="2743200"/>
-          <a:ext cx="1895475" cy="190500"/>
+          <a:off x="1981200" y="2743200"/>
+          <a:ext cx="1790700" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4292,43 +3870,33 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>145472</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15032</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2981325" cy="3762375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA409C6D-5EC8-26E3-D330-6D850D14ED85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13855" y="512619"/>
-          <a:ext cx="3477490" cy="4296086"/>
+          <a:off x="209550" y="1019175"/>
+          <a:ext cx="2981325" cy="3762375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4336,7 +3904,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4604,15 +4172,35 @@
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="12" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="12" x14ac:dyDescent="0.45" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="21" width="5.69921875" style="8"/>
+    <col min="1" max="1" width="5.69921875" style="8"/>
+    <col min="2" max="2" width="5.69921875" style="8"/>
+    <col min="3" max="3" width="5.69921875" style="8"/>
+    <col min="4" max="4" width="5.69921875" style="8"/>
+    <col min="5" max="5" width="5.69921875" style="8"/>
+    <col min="6" max="6" width="5.69921875" style="8"/>
+    <col min="7" max="7" width="5.69921875" style="8"/>
+    <col min="8" max="8" width="5.69921875" style="8"/>
+    <col min="9" max="9" width="5.69921875" style="8"/>
+    <col min="10" max="10" width="5.69921875" style="8"/>
+    <col min="11" max="11" width="5.69921875" style="8"/>
+    <col min="12" max="12" width="5.69921875" style="8"/>
+    <col min="13" max="13" width="5.69921875" style="8"/>
+    <col min="14" max="14" width="5.69921875" style="8"/>
+    <col min="15" max="15" width="5.69921875" style="8"/>
+    <col min="16" max="16" width="5.69921875" style="8"/>
+    <col min="17" max="17" width="5.69921875" style="8"/>
+    <col min="18" max="18" width="5.69921875" style="8"/>
+    <col min="19" max="19" width="5.69921875" style="8"/>
+    <col min="20" max="20" width="5.69921875" style="8"/>
+    <col min="21" max="21" width="5.69921875" style="8"/>
     <col min="22" max="22" width="5.69921875" style="13"/>
     <col min="23" max="23" width="5.69921875" style="8"/>
     <col min="24" max="16384" width="5.69921875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" customFormat="1" s="4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4638,60 +4226,60 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" customFormat="1" s="4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" customFormat="1" s="4">
       <c r="A3" s="5"/>
       <c r="X3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" customFormat="1" s="4">
       <c r="A4" s="5"/>
       <c r="X4" s="7"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" customFormat="1" s="4">
       <c r="A5" s="5"/>
       <c r="X5" s="7"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" customFormat="1" s="4">
       <c r="A6" s="5"/>
       <c r="X6" s="7"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" customFormat="1" s="4">
       <c r="A7" s="5"/>
       <c r="X7" s="7"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" customFormat="1" s="4">
       <c r="A8" s="5"/>
       <c r="X8" s="7"/>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" customFormat="1" s="4">
       <c r="A9" s="5"/>
       <c r="X9" s="7"/>
     </row>
-    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" customFormat="1" s="4">
       <c r="A10" s="5"/>
       <c r="X10" s="7"/>
     </row>
-    <row r="11" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" customFormat="1" s="4">
       <c r="A11" s="5"/>
       <c r="X11" s="7"/>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" customFormat="1" s="4">
       <c r="A12" s="5"/>
       <c r="X12" s="7"/>
     </row>
-    <row r="13" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" customFormat="1" s="4">
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" customFormat="1" s="4">
       <c r="A14" s="5"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="15" ht="23.25" customFormat="1" s="4">
       <c r="A15" s="5"/>
       <c r="I15" s="140" t="s">
         <v>5</v>
@@ -4705,15 +4293,15 @@
       <c r="P15" s="140"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" customFormat="1" s="4">
       <c r="A16" s="5"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" customFormat="1" s="4">
       <c r="A17" s="5"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" customFormat="1" s="4">
       <c r="A18" s="5"/>
       <c r="G18" s="141" t="s">
         <v>6</v>
@@ -4731,7 +4319,7 @@
       <c r="R18" s="143"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="G19" s="144" t="s">
         <v>44</v>
@@ -4749,7 +4337,7 @@
       <c r="R19" s="146"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" customFormat="1" s="4">
       <c r="A20" s="5"/>
       <c r="G20" s="147"/>
       <c r="H20" s="148"/>
@@ -4765,11 +4353,11 @@
       <c r="R20" s="149"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" customFormat="1" s="4">
       <c r="A21" s="5"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.45">
+    <row r="22" ht="12.75" customFormat="1" s="4">
       <c r="A22" s="5"/>
       <c r="G22" s="141" t="s">
         <v>7</v>
@@ -4787,10 +4375,10 @@
       <c r="R22" s="151"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="144" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H23" s="152"/>
       <c r="I23" s="152"/>
@@ -4805,7 +4393,7 @@
       <c r="R23" s="153"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" customFormat="1" s="4">
       <c r="A24" s="5"/>
       <c r="G24" s="154"/>
       <c r="H24" s="155"/>
@@ -4821,7 +4409,7 @@
       <c r="R24" s="156"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" customFormat="1" s="4">
       <c r="A25" s="5"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4835,7 +4423,7 @@
       <c r="Q25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.45">
+    <row r="26" ht="12.75" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4849,79 +4437,79 @@
       <c r="Q26" s="9"/>
       <c r="X26" s="7"/>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" customFormat="1" s="4">
       <c r="A27" s="5"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" customFormat="1" s="4">
       <c r="A28" s="5"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" customFormat="1" s="4">
       <c r="A29" s="5"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" customFormat="1" s="4">
       <c r="A30" s="5"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" customFormat="1" s="4">
       <c r="A31" s="5"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" customFormat="1" s="4">
       <c r="A32" s="5"/>
       <c r="X32" s="7"/>
     </row>
-    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" customFormat="1" s="4">
       <c r="A33" s="5"/>
       <c r="K33" s="8"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" customFormat="1" s="4">
       <c r="A34" s="5"/>
       <c r="K34" s="8"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" customFormat="1" s="4">
       <c r="A35" s="5"/>
       <c r="K35" s="8"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" customFormat="1" s="4">
       <c r="A36" s="5"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" customFormat="1" s="4">
       <c r="A37" s="5"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" customFormat="1" s="4">
       <c r="A38" s="5"/>
       <c r="K38" s="8"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" customFormat="1" s="4">
       <c r="A39" s="5"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" customFormat="1" s="4">
       <c r="A40" s="5"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" customFormat="1" s="4">
       <c r="A41" s="5"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" customFormat="1" s="4">
       <c r="A42" s="5"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" customFormat="1" s="4">
       <c r="A43" s="5"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" customFormat="1" s="4">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4947,7 +4535,7 @@
       <c r="W44" s="11"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="49">
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -4957,7 +4545,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="50">
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -4967,7 +4555,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="51">
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -4977,7 +4565,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="52">
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
@@ -4987,7 +4575,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="53">
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -4997,7 +4585,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="54">
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -5028,7 +4616,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.3984375" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.8984375" style="14" customWidth="1"/>
@@ -5416,12 +5004,12 @@
     <col min="16134" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="C2" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
@@ -5435,7 +5023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -5449,7 +5037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -5457,7 +5045,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -5465,67 +5053,67 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -5542,11 +5130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0">
       <selection activeCell="BT21" sqref="BT21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.45" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="64" width="2.09765625" style="58"/>
     <col min="65" max="65" width="3.59765625" style="58" customWidth="1"/>
@@ -5743,7 +5331,7 @@
     <col min="16195" max="16384" width="2.09765625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="59"/>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -5811,7 +5399,7 @@
       <c r="BM1" s="60"/>
       <c r="BN1" s="62"/>
     </row>
-    <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="187" t="s">
         <v>8</v>
       </c>
@@ -5881,7 +5469,7 @@
       <c r="BM2" s="64"/>
       <c r="BN2" s="65"/>
     </row>
-    <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="187"/>
       <c r="B3" s="188"/>
       <c r="C3" s="188"/>
@@ -5949,7 +5537,7 @@
       <c r="BM3" s="63"/>
       <c r="BN3" s="66"/>
     </row>
-    <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="189" t="s">
         <v>9</v>
       </c>
@@ -5959,7 +5547,7 @@
       <c r="E4" s="190"/>
       <c r="F4" s="191"/>
       <c r="G4" s="192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="193"/>
       <c r="I4" s="193"/>
@@ -5977,7 +5565,7 @@
       <c r="S4" s="196"/>
       <c r="T4" s="197"/>
       <c r="U4" s="198" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V4" s="199"/>
       <c r="W4" s="199"/>
@@ -6033,7 +5621,7 @@
       <c r="BM4" s="172"/>
       <c r="BN4" s="174"/>
     </row>
-    <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="180" t="s">
         <v>13</v>
       </c>
@@ -6111,7 +5699,7 @@
       <c r="BM5" s="178"/>
       <c r="BN5" s="179"/>
     </row>
-    <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="67"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -6181,7 +5769,7 @@
       <c r="BM6" s="164"/>
       <c r="BN6" s="56"/>
     </row>
-    <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="67"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -6249,7 +5837,7 @@
       <c r="BM7" s="167"/>
       <c r="BN7" s="56"/>
     </row>
-    <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="67"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -6319,7 +5907,7 @@
       <c r="BM8" s="160"/>
       <c r="BN8" s="56"/>
     </row>
-    <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="67"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -6389,7 +5977,7 @@
       <c r="BM9" s="160"/>
       <c r="BN9" s="56"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="67"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -6457,7 +6045,7 @@
       <c r="BM10" s="46"/>
       <c r="BN10" s="56"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="67"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -6525,7 +6113,7 @@
       <c r="BM11" s="46"/>
       <c r="BN11" s="56"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="67"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -6593,7 +6181,7 @@
       <c r="BM12" s="46"/>
       <c r="BN12" s="56"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="67"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
@@ -6661,7 +6249,7 @@
       <c r="BM13" s="46"/>
       <c r="BN13" s="56"/>
     </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="67"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -6729,7 +6317,7 @@
       <c r="BM14" s="46"/>
       <c r="BN14" s="56"/>
     </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="67"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -6797,7 +6385,7 @@
       <c r="BM15" s="46"/>
       <c r="BN15" s="56"/>
     </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="67"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -6865,7 +6453,7 @@
       <c r="BM16" s="46"/>
       <c r="BN16" s="56"/>
     </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="67"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -6933,7 +6521,7 @@
       <c r="BM17" s="46"/>
       <c r="BN17" s="56"/>
     </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="67"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -7001,7 +6589,7 @@
       <c r="BM18" s="46"/>
       <c r="BN18" s="56"/>
     </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="67"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -7069,7 +6657,7 @@
       <c r="BM19" s="46"/>
       <c r="BN19" s="56"/>
     </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="67"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -7137,7 +6725,7 @@
       <c r="BM20" s="46"/>
       <c r="BN20" s="56"/>
     </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="67"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -7205,7 +6793,7 @@
       <c r="BM21" s="46"/>
       <c r="BN21" s="56"/>
     </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="67"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
@@ -7273,7 +6861,7 @@
       <c r="BM22" s="46"/>
       <c r="BN22" s="56"/>
     </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="67"/>
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
@@ -7341,7 +6929,7 @@
       <c r="BM23" s="46"/>
       <c r="BN23" s="56"/>
     </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="67"/>
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
@@ -7409,7 +6997,7 @@
       <c r="BM24" s="46"/>
       <c r="BN24" s="56"/>
     </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="67"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -7477,7 +7065,7 @@
       <c r="BM25" s="46"/>
       <c r="BN25" s="56"/>
     </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="67"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -7545,7 +7133,7 @@
       <c r="BM26" s="160"/>
       <c r="BN26" s="56"/>
     </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="67"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -7613,7 +7201,7 @@
       <c r="BM27" s="160"/>
       <c r="BN27" s="56"/>
     </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="67"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -7681,7 +7269,7 @@
       <c r="BM28" s="160"/>
       <c r="BN28" s="56"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="67"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
@@ -7749,7 +7337,7 @@
       <c r="BM29" s="160"/>
       <c r="BN29" s="56"/>
     </row>
-    <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="67"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -7817,7 +7405,7 @@
       <c r="BM30" s="160"/>
       <c r="BN30" s="56"/>
     </row>
-    <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="67"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -7885,7 +7473,7 @@
       <c r="BM31" s="160"/>
       <c r="BN31" s="56"/>
     </row>
-    <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" customHeight="1" ht="12">
       <c r="A32" s="67"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
@@ -7953,7 +7541,7 @@
       <c r="BM32" s="160"/>
       <c r="BN32" s="56"/>
     </row>
-    <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" customHeight="1" ht="12">
       <c r="A33" s="67"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -8021,7 +7609,7 @@
       <c r="BM33" s="160"/>
       <c r="BN33" s="56"/>
     </row>
-    <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" customHeight="1" ht="12">
       <c r="A34" s="67"/>
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
@@ -8089,7 +7677,7 @@
       <c r="BM34" s="160"/>
       <c r="BN34" s="56"/>
     </row>
-    <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" customHeight="1" ht="12">
       <c r="A35" s="67"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
@@ -8157,7 +7745,7 @@
       <c r="BM35" s="160"/>
       <c r="BN35" s="56"/>
     </row>
-    <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" customHeight="1" ht="12">
       <c r="A36" s="67"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -8225,7 +7813,7 @@
       <c r="BM36" s="160"/>
       <c r="BN36" s="56"/>
     </row>
-    <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" customHeight="1" ht="12">
       <c r="A37" s="67"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -8293,7 +7881,7 @@
       <c r="BM37" s="160"/>
       <c r="BN37" s="56"/>
     </row>
-    <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" customHeight="1" ht="12">
       <c r="A38" s="67"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -8361,7 +7949,7 @@
       <c r="BM38" s="160"/>
       <c r="BN38" s="56"/>
     </row>
-    <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" customHeight="1" ht="12">
       <c r="A39" s="67"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
@@ -8429,7 +8017,7 @@
       <c r="BM39" s="160"/>
       <c r="BN39" s="56"/>
     </row>
-    <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" customHeight="1" ht="12">
       <c r="A40" s="67"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
@@ -8497,7 +8085,7 @@
       <c r="BM40" s="160"/>
       <c r="BN40" s="56"/>
     </row>
-    <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" customHeight="1" ht="12">
       <c r="A41" s="67"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
@@ -8565,7 +8153,7 @@
       <c r="BM41" s="160"/>
       <c r="BN41" s="56"/>
     </row>
-    <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" customHeight="1" ht="12">
       <c r="A42" s="68"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69"/>
@@ -8633,7 +8221,7 @@
       <c r="BM42" s="158"/>
       <c r="BN42" s="71"/>
     </row>
-    <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" customHeight="1" ht="12">
       <c r="A43" s="28"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -8708,22 +8296,22 @@
     <mergeCell ref="G4:N4"/>
     <mergeCell ref="O4:T4"/>
     <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:N5"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="U5:AV5"/>
     <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
     <mergeCell ref="AW6:BM7"/>
     <mergeCell ref="BE8:BM8"/>
     <mergeCell ref="BE9:BM9"/>
     <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
     <mergeCell ref="BE27:BM27"/>
     <mergeCell ref="BE28:BM28"/>
     <mergeCell ref="BE29:BM29"/>
@@ -8734,12 +8322,12 @@
     <mergeCell ref="BE34:BM34"/>
     <mergeCell ref="BE35:BM35"/>
     <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE42:BM42"/>
     <mergeCell ref="BE37:BM37"/>
     <mergeCell ref="BE38:BM38"/>
     <mergeCell ref="BE39:BM39"/>
     <mergeCell ref="BE40:BM40"/>
     <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8751,11 +8339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AD18" sqref="AD18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="42" width="2.09765625" style="24"/>
     <col min="43" max="43" width="2.8984375" style="24" bestFit="1" customWidth="1"/>
@@ -8957,7 +8545,7 @@
     <col min="16195" max="16384" width="2.09765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" s="237" t="s">
         <v>8</v>
       </c>
@@ -9011,7 +8599,7 @@
       <c r="BM1" s="26"/>
       <c r="BN1" s="27"/>
     </row>
-    <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="239" t="s">
         <v>9</v>
       </c>
@@ -9021,7 +8609,7 @@
       <c r="E2" s="240"/>
       <c r="F2" s="241"/>
       <c r="G2" s="242" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="243"/>
       <c r="I2" s="243"/>
@@ -9039,7 +8627,7 @@
       <c r="S2" s="246"/>
       <c r="T2" s="247"/>
       <c r="U2" s="248" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V2" s="249"/>
       <c r="W2" s="249"/>
@@ -9095,7 +8683,7 @@
       <c r="BM2" s="223"/>
       <c r="BN2" s="225"/>
     </row>
-    <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="226" t="s">
         <v>13</v>
       </c>
@@ -9173,7 +8761,7 @@
       <c r="BM3" s="232"/>
       <c r="BN3" s="233"/>
     </row>
-    <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="28"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -9247,7 +8835,7 @@
       <c r="BM4" s="210"/>
       <c r="BN4" s="30"/>
     </row>
-    <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="28"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -9295,7 +8883,7 @@
       </c>
       <c r="AR5" s="110"/>
       <c r="AS5" s="216" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AT5" s="217"/>
       <c r="AU5" s="217"/>
@@ -9309,7 +8897,7 @@
       <c r="BC5" s="217"/>
       <c r="BD5" s="75"/>
       <c r="BE5" s="216" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="BF5" s="217"/>
       <c r="BG5" s="217"/>
@@ -9321,7 +8909,7 @@
       <c r="BM5" s="218"/>
       <c r="BN5" s="30"/>
     </row>
-    <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -9364,12 +8952,12 @@
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
       <c r="AP6" s="201" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AQ6" s="202"/>
       <c r="AR6" s="203"/>
       <c r="AS6" s="212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AT6" s="213"/>
       <c r="AU6" s="213"/>
@@ -9395,7 +8983,7 @@
       <c r="BM6" s="206"/>
       <c r="BN6" s="30"/>
     </row>
-    <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -9438,12 +9026,12 @@
       <c r="AN7" s="29"/>
       <c r="AO7" s="29"/>
       <c r="AP7" s="201" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AQ7" s="202"/>
       <c r="AR7" s="203"/>
       <c r="AS7" s="204" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT7" s="211"/>
       <c r="AU7" s="211"/>
@@ -9457,7 +9045,7 @@
       <c r="BC7" s="215"/>
       <c r="BD7" s="116"/>
       <c r="BE7" s="204" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF7" s="205"/>
       <c r="BG7" s="205"/>
@@ -9469,7 +9057,7 @@
       <c r="BM7" s="206"/>
       <c r="BN7" s="30"/>
     </row>
-    <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -9519,7 +9107,7 @@
       </c>
       <c r="AR8" s="112"/>
       <c r="AS8" s="204" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AT8" s="211"/>
       <c r="AU8" s="211"/>
@@ -9533,7 +9121,7 @@
       <c r="BC8" s="215"/>
       <c r="BD8" s="116"/>
       <c r="BE8" s="120" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="BF8" s="119"/>
       <c r="BG8" s="119"/>
@@ -9545,7 +9133,7 @@
       <c r="BM8" s="116"/>
       <c r="BN8" s="30"/>
     </row>
-    <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -9593,7 +9181,7 @@
       </c>
       <c r="AR9" s="112"/>
       <c r="AS9" s="204" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AT9" s="211"/>
       <c r="AU9" s="211"/>
@@ -9607,7 +9195,7 @@
       <c r="BC9" s="215"/>
       <c r="BD9" s="116"/>
       <c r="BE9" s="120" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="BF9" s="119"/>
       <c r="BG9" s="119"/>
@@ -9619,7 +9207,7 @@
       <c r="BM9" s="116"/>
       <c r="BN9" s="30"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="28"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -9667,7 +9255,7 @@
       </c>
       <c r="AR10" s="112"/>
       <c r="AS10" s="204" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT10" s="211"/>
       <c r="AU10" s="211"/>
@@ -9681,7 +9269,7 @@
       <c r="BC10" s="215"/>
       <c r="BD10" s="116"/>
       <c r="BE10" s="120" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="BF10" s="121"/>
       <c r="BG10" s="121"/>
@@ -9693,7 +9281,7 @@
       <c r="BM10" s="122"/>
       <c r="BN10" s="30"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="28"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -9741,7 +9329,7 @@
       </c>
       <c r="AR11" s="112"/>
       <c r="AS11" s="204" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT11" s="211"/>
       <c r="AU11" s="211"/>
@@ -9755,7 +9343,7 @@
       <c r="BC11" s="215"/>
       <c r="BD11" s="116"/>
       <c r="BE11" s="120" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF11" s="123"/>
       <c r="BG11" s="123"/>
@@ -9767,7 +9355,7 @@
       <c r="BM11" s="124"/>
       <c r="BN11" s="30"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="28"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -9815,7 +9403,7 @@
       </c>
       <c r="AR12" s="112"/>
       <c r="AS12" s="204" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT12" s="211"/>
       <c r="AU12" s="211"/>
@@ -9841,7 +9429,7 @@
       <c r="BM12" s="122"/>
       <c r="BN12" s="30"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -9884,12 +9472,12 @@
       <c r="AN13" s="29"/>
       <c r="AO13" s="29"/>
       <c r="AP13" s="201" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AQ13" s="202"/>
       <c r="AR13" s="203"/>
       <c r="AS13" s="204" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT13" s="211"/>
       <c r="AU13" s="211"/>
@@ -9903,7 +9491,7 @@
       <c r="BC13" s="215"/>
       <c r="BD13" s="116"/>
       <c r="BE13" s="120" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF13" s="123"/>
       <c r="BG13" s="123"/>
@@ -9915,7 +9503,7 @@
       <c r="BM13" s="122"/>
       <c r="BN13" s="30"/>
     </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -9958,12 +9546,12 @@
       <c r="AN14" s="29"/>
       <c r="AO14" s="29"/>
       <c r="AP14" s="201" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AQ14" s="202"/>
       <c r="AR14" s="203"/>
       <c r="AS14" s="204" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT14" s="211"/>
       <c r="AU14" s="211"/>
@@ -9989,7 +9577,7 @@
       <c r="BM14" s="122"/>
       <c r="BN14" s="30"/>
     </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -10037,7 +9625,7 @@
       </c>
       <c r="AR15" s="112"/>
       <c r="AS15" s="204" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT15" s="211"/>
       <c r="AU15" s="211"/>
@@ -10051,7 +9639,7 @@
       <c r="BC15" s="215"/>
       <c r="BD15" s="116"/>
       <c r="BE15" s="120" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF15" s="121"/>
       <c r="BG15" s="121"/>
@@ -10063,7 +9651,7 @@
       <c r="BM15" s="122"/>
       <c r="BN15" s="30"/>
     </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -10111,7 +9699,7 @@
       </c>
       <c r="AR16" s="112"/>
       <c r="AS16" s="204" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT16" s="211"/>
       <c r="AU16" s="211"/>
@@ -10125,7 +9713,7 @@
       <c r="BC16" s="215"/>
       <c r="BD16" s="116"/>
       <c r="BE16" s="120" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF16" s="121"/>
       <c r="BG16" s="121"/>
@@ -10137,7 +9725,7 @@
       <c r="BM16" s="122"/>
       <c r="BN16" s="30"/>
     </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -10185,7 +9773,7 @@
       </c>
       <c r="AR17" s="112"/>
       <c r="AS17" s="204" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AT17" s="211"/>
       <c r="AU17" s="211"/>
@@ -10199,7 +9787,7 @@
       <c r="BC17" s="215"/>
       <c r="BD17" s="116"/>
       <c r="BE17" s="120" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF17" s="121"/>
       <c r="BG17" s="121"/>
@@ -10211,7 +9799,7 @@
       <c r="BM17" s="122"/>
       <c r="BN17" s="30"/>
     </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="28"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -10259,7 +9847,7 @@
       </c>
       <c r="AR18" s="112"/>
       <c r="AS18" s="107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT18" s="117"/>
       <c r="AU18" s="117"/>
@@ -10273,7 +9861,7 @@
       <c r="BC18" s="118"/>
       <c r="BD18" s="116"/>
       <c r="BE18" s="120" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="BF18" s="121"/>
       <c r="BG18" s="121"/>
@@ -10285,7 +9873,7 @@
       <c r="BM18" s="122"/>
       <c r="BN18" s="30"/>
     </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -10333,7 +9921,7 @@
       </c>
       <c r="AR19" s="112"/>
       <c r="AS19" s="107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AT19" s="117"/>
       <c r="AU19" s="117"/>
@@ -10347,7 +9935,7 @@
       <c r="BC19" s="118"/>
       <c r="BD19" s="125"/>
       <c r="BE19" s="204" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF19" s="205"/>
       <c r="BG19" s="205"/>
@@ -10359,7 +9947,7 @@
       <c r="BM19" s="206"/>
       <c r="BN19" s="30"/>
     </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -10402,12 +9990,12 @@
       <c r="AN20" s="29"/>
       <c r="AO20" s="29"/>
       <c r="AP20" s="201" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AQ20" s="256"/>
       <c r="AR20" s="257"/>
       <c r="AS20" s="107" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AT20" s="117"/>
       <c r="AU20" s="117"/>
@@ -10421,7 +10009,7 @@
       <c r="BC20" s="118"/>
       <c r="BD20" s="126"/>
       <c r="BE20" s="204" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BF20" s="211"/>
       <c r="BG20" s="211"/>
@@ -10433,7 +10021,7 @@
       <c r="BM20" s="206"/>
       <c r="BN20" s="30"/>
     </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="12">
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -10481,7 +10069,7 @@
       </c>
       <c r="AR21" s="115"/>
       <c r="AS21" s="204" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT21" s="211"/>
       <c r="AU21" s="211"/>
@@ -10495,7 +10083,7 @@
       <c r="BC21" s="215"/>
       <c r="BD21" s="127"/>
       <c r="BE21" s="128" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BF21" s="128"/>
       <c r="BG21" s="128"/>
@@ -10507,7 +10095,7 @@
       <c r="BM21" s="128"/>
       <c r="BN21" s="87"/>
     </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="28"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -10550,12 +10138,12 @@
       <c r="AN22" s="29"/>
       <c r="AO22" s="29"/>
       <c r="AP22" s="251" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AQ22" s="252"/>
       <c r="AR22" s="253"/>
       <c r="AS22" s="254" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AT22" s="254"/>
       <c r="AU22" s="254"/>
@@ -10569,7 +10157,7 @@
       <c r="BC22" s="254"/>
       <c r="BD22" s="255"/>
       <c r="BE22" s="254" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BF22" s="254"/>
       <c r="BG22" s="254"/>
@@ -10581,7 +10169,7 @@
       <c r="BM22" s="255"/>
       <c r="BN22" s="86"/>
     </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="57"/>
       <c r="AS23" s="123"/>
       <c r="AT23" s="123"/>
@@ -10606,7 +10194,7 @@
       <c r="BM23" s="123"/>
       <c r="BN23" s="86"/>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="57"/>
       <c r="AZ24" s="84"/>
       <c r="BA24" s="84"/>
@@ -10614,7 +10202,7 @@
       <c r="BC24" s="84"/>
       <c r="BN24" s="86"/>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="57"/>
       <c r="AZ25" s="84"/>
       <c r="BA25" s="84"/>
@@ -10622,7 +10210,7 @@
       <c r="BC25" s="84"/>
       <c r="BN25" s="86"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="57"/>
       <c r="AZ26" s="84"/>
       <c r="BA26" s="84"/>
@@ -10630,7 +10218,7 @@
       <c r="BC26" s="84"/>
       <c r="BN26" s="86"/>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="57"/>
       <c r="AZ27" s="84"/>
       <c r="BA27" s="84"/>
@@ -10638,7 +10226,7 @@
       <c r="BC27" s="84"/>
       <c r="BN27" s="86"/>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="57"/>
       <c r="AZ28" s="84"/>
       <c r="BA28" s="84"/>
@@ -10646,7 +10234,7 @@
       <c r="BC28" s="84"/>
       <c r="BN28" s="86"/>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="57"/>
       <c r="AZ29" s="84"/>
       <c r="BA29" s="84"/>
@@ -10654,7 +10242,7 @@
       <c r="BC29" s="84"/>
       <c r="BN29" s="86"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="57"/>
       <c r="AZ30" s="84"/>
       <c r="BA30" s="84"/>
@@ -10662,7 +10250,7 @@
       <c r="BC30" s="84"/>
       <c r="BN30" s="86"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="57"/>
       <c r="AZ31" s="84"/>
       <c r="BA31" s="84"/>
@@ -10670,7 +10258,7 @@
       <c r="BC31" s="84"/>
       <c r="BN31" s="86"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="57"/>
       <c r="AZ32" s="84"/>
       <c r="BA32" s="84"/>
@@ -10678,7 +10266,7 @@
       <c r="BC32" s="84"/>
       <c r="BN32" s="86"/>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="57"/>
       <c r="AZ33" s="84"/>
       <c r="BA33" s="84"/>
@@ -10686,7 +10274,7 @@
       <c r="BC33" s="84"/>
       <c r="BN33" s="86"/>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="57"/>
       <c r="AZ34" s="84"/>
       <c r="BA34" s="84"/>
@@ -10694,7 +10282,7 @@
       <c r="BC34" s="84"/>
       <c r="BN34" s="86"/>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="57"/>
       <c r="AZ35" s="84"/>
       <c r="BA35" s="84"/>
@@ -10702,7 +10290,7 @@
       <c r="BC35" s="84"/>
       <c r="BN35" s="86"/>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="57"/>
       <c r="AZ36" s="84"/>
       <c r="BA36" s="84"/>
@@ -10710,11 +10298,11 @@
       <c r="BC36" s="84"/>
       <c r="BN36" s="30"/>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="57"/>
       <c r="BN37" s="30"/>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -10759,7 +10347,7 @@
       <c r="BD38" s="38"/>
       <c r="BN38" s="31"/>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="AP39" s="38"/>
       <c r="AQ39" s="38"/>
       <c r="AR39" s="38"/>
@@ -10784,7 +10372,7 @@
       <c r="BL39" s="38"/>
       <c r="BM39" s="38"/>
     </row>
-    <row r="55" spans="45:55" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="AS55" s="38"/>
       <c r="AT55" s="38"/>
       <c r="AU55" s="38"/>
@@ -10799,25 +10387,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="AS21:BC21"/>
-    <mergeCell ref="AS8:BC8"/>
-    <mergeCell ref="AS9:BC9"/>
-    <mergeCell ref="AS13:BC13"/>
-    <mergeCell ref="AS14:BC14"/>
-    <mergeCell ref="BE19:BM19"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="AS15:BC15"/>
-    <mergeCell ref="AS16:BC16"/>
-    <mergeCell ref="AS17:BC17"/>
-    <mergeCell ref="AS10:BC10"/>
-    <mergeCell ref="AS11:BC11"/>
-    <mergeCell ref="AS12:BC12"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AS22:BD22"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AP20:AR20"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:N2"/>
@@ -10835,17 +10404,36 @@
     <mergeCell ref="AZ3:BE3"/>
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BN3"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="BE7:BM7"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="AS4:BD4"/>
     <mergeCell ref="BE4:BM4"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AS6:BC6"/>
-    <mergeCell ref="AS7:BC7"/>
     <mergeCell ref="AS5:BC5"/>
     <mergeCell ref="BE5:BM5"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AS6:BC6"/>
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AS7:BC7"/>
+    <mergeCell ref="BE7:BM7"/>
+    <mergeCell ref="AS8:BC8"/>
+    <mergeCell ref="AS9:BC9"/>
+    <mergeCell ref="AS10:BC10"/>
+    <mergeCell ref="AS11:BC11"/>
+    <mergeCell ref="AS12:BC12"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AS13:BC13"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AS14:BC14"/>
+    <mergeCell ref="AS15:BC15"/>
+    <mergeCell ref="AS16:BC16"/>
+    <mergeCell ref="AS17:BC17"/>
+    <mergeCell ref="BE19:BM19"/>
+    <mergeCell ref="AP20:AR20"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="AS21:BC21"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="AS22:BD22"/>
+    <mergeCell ref="BE22:BM22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10857,11 +10445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U4" sqref="U4:AU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="0.69921875" style="24" customWidth="1"/>
     <col min="2" max="33" width="2.09765625" style="24"/>
@@ -11123,7 +10711,7 @@
     <col min="16161" max="16384" width="2.09765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -11188,7 +10776,7 @@
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
     </row>
-    <row r="2" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
@@ -11240,7 +10828,7 @@
       <c r="BJ2" s="26"/>
       <c r="BK2" s="26"/>
     </row>
-    <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="15">
       <c r="A3" s="237"/>
       <c r="B3" s="238"/>
       <c r="C3" s="238"/>
@@ -11290,7 +10878,7 @@
       <c r="BJ3" s="25"/>
       <c r="BK3" s="25"/>
     </row>
-    <row r="4" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="290" t="s">
         <v>9</v>
       </c>
@@ -11300,7 +10888,7 @@
       <c r="E4" s="291"/>
       <c r="F4" s="292"/>
       <c r="G4" s="293" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="294"/>
       <c r="I4" s="294"/>
@@ -11318,7 +10906,7 @@
       <c r="S4" s="297"/>
       <c r="T4" s="298"/>
       <c r="U4" s="299" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="V4" s="300"/>
       <c r="W4" s="300"/>
@@ -11371,7 +10959,7 @@
       <c r="BJ4" s="274"/>
       <c r="BK4" s="275"/>
     </row>
-    <row r="5" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="276" t="s">
         <v>13</v>
       </c>
@@ -11446,7 +11034,7 @@
       <c r="BJ5" s="274"/>
       <c r="BK5" s="275"/>
     </row>
-    <row r="6" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -11511,7 +11099,7 @@
       <c r="BJ6" s="259"/>
       <c r="BK6" s="259"/>
     </row>
-    <row r="7" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="12">
       <c r="A7" s="34"/>
       <c r="C7" s="260" t="s">
         <v>23</v>
@@ -11577,11 +11165,11 @@
       <c r="BJ7" s="261"/>
       <c r="BK7" s="262"/>
     </row>
-    <row r="8" spans="1:63" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" customFormat="1" s="51">
       <c r="A8" s="52"/>
       <c r="C8" s="53"/>
       <c r="D8" s="54" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
@@ -11643,12 +11231,12 @@
       <c r="BJ8" s="54"/>
       <c r="BK8" s="55"/>
     </row>
-    <row r="9" spans="1:63" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" customFormat="1" s="51">
       <c r="A9" s="52"/>
       <c r="C9" s="88"/>
       <c r="D9" s="89"/>
       <c r="E9" s="89" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F9" s="89"/>
       <c r="G9" s="89"/>
@@ -11709,7 +11297,7 @@
       <c r="BJ9" s="89"/>
       <c r="BK9" s="90"/>
     </row>
-    <row r="10" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="34"/>
       <c r="B10" s="36"/>
       <c r="C10" s="263" t="s">
@@ -11776,7 +11364,7 @@
       <c r="BJ10" s="95"/>
       <c r="BK10" s="96"/>
     </row>
-    <row r="11" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="34"/>
       <c r="B11" s="130"/>
       <c r="C11" s="131"/>
@@ -11841,15 +11429,15 @@
       <c r="BJ11" s="93"/>
       <c r="BK11" s="94"/>
     </row>
-    <row r="12" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="34"/>
       <c r="B12" s="130"/>
       <c r="C12" s="131"/>
       <c r="D12" s="132" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E12" s="132" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F12" s="133"/>
       <c r="G12" s="132"/>
@@ -11910,13 +11498,13 @@
       <c r="BJ12" s="93"/>
       <c r="BK12" s="94"/>
     </row>
-    <row r="13" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="34"/>
       <c r="B13" s="130"/>
       <c r="C13" s="131"/>
       <c r="D13" s="132"/>
       <c r="E13" s="132" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F13" s="133"/>
       <c r="G13" s="132"/>
@@ -11977,7 +11565,7 @@
       <c r="BJ13" s="93"/>
       <c r="BK13" s="94"/>
     </row>
-    <row r="14" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="12">
       <c r="A14" s="34"/>
       <c r="B14" s="130"/>
       <c r="C14" s="131"/>
@@ -12042,15 +11630,15 @@
       <c r="BJ14" s="93"/>
       <c r="BK14" s="94"/>
     </row>
-    <row r="15" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="34"/>
       <c r="B15" s="130"/>
       <c r="C15" s="131"/>
       <c r="D15" s="132" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E15" s="132" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F15" s="133"/>
       <c r="G15" s="132"/>
@@ -12111,13 +11699,13 @@
       <c r="BJ15" s="93"/>
       <c r="BK15" s="94"/>
     </row>
-    <row r="16" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="12">
       <c r="A16" s="34"/>
       <c r="B16" s="130"/>
       <c r="C16" s="131"/>
       <c r="D16" s="132"/>
       <c r="E16" s="132" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F16" s="133"/>
       <c r="G16" s="132"/>
@@ -12178,7 +11766,7 @@
       <c r="BJ16" s="93"/>
       <c r="BK16" s="94"/>
     </row>
-    <row r="17" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="34"/>
       <c r="B17" s="130"/>
       <c r="C17" s="131"/>
@@ -12243,15 +11831,15 @@
       <c r="BJ17" s="93"/>
       <c r="BK17" s="94"/>
     </row>
-    <row r="18" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="12">
       <c r="A18" s="34"/>
       <c r="B18" s="130"/>
       <c r="C18" s="131"/>
       <c r="D18" s="132" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E18" s="132" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
@@ -12312,16 +11900,16 @@
       <c r="BJ18" s="93"/>
       <c r="BK18" s="94"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="34"/>
       <c r="B19" s="130"/>
       <c r="C19" s="131"/>
       <c r="D19" s="132"/>
       <c r="E19" s="132" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F19" s="132" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
@@ -12381,14 +11969,14 @@
       <c r="BJ19" s="93"/>
       <c r="BK19" s="94"/>
     </row>
-    <row r="20" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="34"/>
       <c r="B20" s="123"/>
       <c r="C20" s="131"/>
       <c r="D20" s="132"/>
       <c r="E20" s="132"/>
       <c r="F20" s="132" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G20" s="132"/>
       <c r="H20" s="132"/>
@@ -12448,14 +12036,14 @@
       <c r="BJ20" s="92"/>
       <c r="BK20" s="91"/>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="34"/>
       <c r="B21" s="123"/>
       <c r="C21" s="131"/>
       <c r="D21" s="132"/>
       <c r="E21" s="132"/>
       <c r="F21" s="132" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G21" s="132"/>
       <c r="H21" s="132"/>
@@ -12515,7 +12103,7 @@
       <c r="BJ21" s="92"/>
       <c r="BK21" s="91"/>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="B22" s="123"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132"/>
@@ -12579,15 +12167,15 @@
       <c r="BJ22" s="84"/>
       <c r="BK22" s="86"/>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="B23" s="123"/>
       <c r="C23" s="131"/>
       <c r="D23" s="132"/>
       <c r="E23" s="132" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F23" s="132" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G23" s="132"/>
       <c r="H23" s="132"/>
@@ -12647,13 +12235,13 @@
       <c r="BJ23" s="84"/>
       <c r="BK23" s="86"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="B24" s="123"/>
       <c r="C24" s="131"/>
       <c r="D24" s="132"/>
       <c r="E24" s="132"/>
       <c r="F24" s="132" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G24" s="132"/>
       <c r="H24" s="132"/>
@@ -12713,7 +12301,7 @@
       <c r="BJ24" s="84"/>
       <c r="BK24" s="86"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="B25" s="123"/>
       <c r="C25" s="136"/>
       <c r="D25" s="137"/>
@@ -12815,7 +12403,7 @@
       <selection activeCell="Q11" sqref="Q11:U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="10.8" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="2.09765625" style="24"/>
@@ -12957,7 +12545,7 @@
     <col min="16155" max="16384" width="2.09765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customHeight="1" ht="12">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -13023,7 +12611,7 @@
       <c r="BK1" s="21"/>
       <c r="BL1" s="21"/>
     </row>
-    <row r="2" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" ht="12">
       <c r="A2" s="237" t="s">
         <v>24</v>
       </c>
@@ -13077,7 +12665,7 @@
       <c r="BK2" s="26"/>
       <c r="BL2" s="26"/>
     </row>
-    <row r="3" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" ht="12">
       <c r="A3" s="380"/>
       <c r="B3" s="381"/>
       <c r="C3" s="381"/>
@@ -13143,7 +12731,7 @@
       <c r="BK3" s="48"/>
       <c r="BL3" s="48"/>
     </row>
-    <row r="4" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="382" t="s">
         <v>9</v>
       </c>
@@ -13153,7 +12741,7 @@
       <c r="E4" s="383"/>
       <c r="F4" s="384"/>
       <c r="G4" s="385" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="386"/>
       <c r="I4" s="386"/>
@@ -13172,7 +12760,7 @@
       <c r="T4" s="389"/>
       <c r="U4" s="390"/>
       <c r="V4" s="391" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W4" s="392"/>
       <c r="X4" s="392"/>
@@ -13225,7 +12813,7 @@
       <c r="BK4" s="274"/>
       <c r="BL4" s="275"/>
     </row>
-    <row r="5" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" ht="12">
       <c r="A5" s="370" t="s">
         <v>13</v>
       </c>
@@ -13299,9 +12887,9 @@
       <c r="BK5" s="375"/>
       <c r="BL5" s="376"/>
     </row>
-    <row r="6" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12">
       <c r="A6" s="333" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="334"/>
       <c r="C6" s="334"/>
@@ -13336,7 +12924,7 @@
       <c r="AF6" s="334"/>
       <c r="AG6" s="335"/>
       <c r="AH6" s="336" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI6" s="337"/>
       <c r="AJ6" s="337"/>
@@ -13369,7 +12957,7 @@
       <c r="BI6" s="340"/>
       <c r="BJ6" s="341"/>
     </row>
-    <row r="7" spans="1:64" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" ht="24">
       <c r="A7" s="77" t="s">
         <v>26</v>
       </c>
@@ -13393,14 +12981,14 @@
       <c r="O7" s="346"/>
       <c r="P7" s="347"/>
       <c r="Q7" s="345" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R7" s="346"/>
       <c r="S7" s="346"/>
       <c r="T7" s="346"/>
       <c r="U7" s="348"/>
       <c r="V7" s="349" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W7" s="347"/>
       <c r="X7" s="345" t="s">
@@ -13412,7 +13000,7 @@
       </c>
       <c r="AA7" s="347"/>
       <c r="AB7" s="345" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="347"/>
       <c r="AD7" s="345" t="s">
@@ -13455,12 +13043,12 @@
       <c r="BI7" s="343"/>
       <c r="BJ7" s="344"/>
     </row>
-    <row r="8" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" customHeight="1" ht="12">
       <c r="A8" s="41">
         <v>1</v>
       </c>
       <c r="B8" s="367" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="368"/>
       <c r="D8" s="368"/>
@@ -13473,13 +13061,13 @@
       <c r="K8" s="368"/>
       <c r="L8" s="369"/>
       <c r="M8" s="321" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N8" s="322"/>
       <c r="O8" s="322"/>
       <c r="P8" s="323"/>
       <c r="Q8" s="355" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="340"/>
       <c r="S8" s="340"/>
@@ -13490,15 +13078,15 @@
       </c>
       <c r="W8" s="357"/>
       <c r="X8" s="308" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y8" s="310"/>
       <c r="Z8" s="358" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA8" s="359"/>
       <c r="AB8" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC8" s="310"/>
       <c r="AD8" s="308" t="s">
@@ -13508,14 +13096,14 @@
       <c r="AF8" s="309"/>
       <c r="AG8" s="310"/>
       <c r="AH8" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI8" s="303"/>
       <c r="AJ8" s="303"/>
       <c r="AK8" s="303"/>
       <c r="AL8" s="304"/>
       <c r="AM8" s="362" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN8" s="363"/>
       <c r="AO8" s="363"/>
@@ -13541,12 +13129,12 @@
       <c r="BI8" s="365"/>
       <c r="BJ8" s="366"/>
     </row>
-    <row r="9" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" customHeight="1" ht="12">
       <c r="A9" s="41">
         <v>2</v>
       </c>
       <c r="B9" s="329" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="330"/>
       <c r="D9" s="330"/>
@@ -13559,13 +13147,13 @@
       <c r="K9" s="330"/>
       <c r="L9" s="331"/>
       <c r="M9" s="308" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N9" s="309"/>
       <c r="O9" s="309"/>
       <c r="P9" s="310"/>
       <c r="Q9" s="311" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R9" s="312"/>
       <c r="S9" s="312"/>
@@ -13576,15 +13164,15 @@
       </c>
       <c r="W9" s="357"/>
       <c r="X9" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y9" s="315"/>
       <c r="Z9" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA9" s="317"/>
       <c r="AB9" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC9" s="310"/>
       <c r="AD9" s="308" t="s">
@@ -13594,14 +13182,14 @@
       <c r="AF9" s="309"/>
       <c r="AG9" s="310"/>
       <c r="AH9" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI9" s="303"/>
       <c r="AJ9" s="303"/>
       <c r="AK9" s="303"/>
       <c r="AL9" s="304"/>
       <c r="AM9" s="318" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN9" s="319"/>
       <c r="AO9" s="319"/>
@@ -13627,12 +13215,12 @@
       <c r="BI9" s="309"/>
       <c r="BJ9" s="328"/>
     </row>
-    <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="41">
         <v>3</v>
       </c>
       <c r="B10" s="329" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="330"/>
       <c r="D10" s="330"/>
@@ -13645,13 +13233,13 @@
       <c r="K10" s="330"/>
       <c r="L10" s="331"/>
       <c r="M10" s="308" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N10" s="309"/>
       <c r="O10" s="309"/>
       <c r="P10" s="310"/>
       <c r="Q10" s="324" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R10" s="325"/>
       <c r="S10" s="325"/>
@@ -13662,15 +13250,15 @@
         <v>1</v>
       </c>
       <c r="X10" s="314" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y10" s="315"/>
       <c r="Z10" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA10" s="317"/>
       <c r="AB10" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC10" s="310"/>
       <c r="AD10" s="308" t="s">
@@ -13680,14 +13268,14 @@
       <c r="AF10" s="309"/>
       <c r="AG10" s="328"/>
       <c r="AH10" s="327" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI10" s="309"/>
       <c r="AJ10" s="309"/>
       <c r="AK10" s="309"/>
       <c r="AL10" s="310"/>
       <c r="AM10" s="305" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN10" s="306"/>
       <c r="AO10" s="306"/>
@@ -13713,12 +13301,12 @@
       <c r="BI10" s="78"/>
       <c r="BJ10" s="79"/>
     </row>
-    <row r="11" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" customHeight="1" ht="12">
       <c r="A11" s="41">
         <v>4</v>
       </c>
       <c r="B11" s="329" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="330"/>
       <c r="D11" s="330"/>
@@ -13731,13 +13319,13 @@
       <c r="K11" s="330"/>
       <c r="L11" s="331"/>
       <c r="M11" s="308" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N11" s="309"/>
       <c r="O11" s="309"/>
       <c r="P11" s="310"/>
       <c r="Q11" s="311" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R11" s="312"/>
       <c r="S11" s="312"/>
@@ -13748,15 +13336,15 @@
       </c>
       <c r="W11" s="357"/>
       <c r="X11" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y11" s="315"/>
       <c r="Z11" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA11" s="317"/>
       <c r="AB11" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC11" s="310"/>
       <c r="AD11" s="308" t="s">
@@ -13766,14 +13354,14 @@
       <c r="AF11" s="309"/>
       <c r="AG11" s="310"/>
       <c r="AH11" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI11" s="303"/>
       <c r="AJ11" s="303"/>
       <c r="AK11" s="303"/>
       <c r="AL11" s="304"/>
       <c r="AM11" s="318" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN11" s="319"/>
       <c r="AO11" s="319"/>
@@ -13799,12 +13387,12 @@
       <c r="BI11" s="309"/>
       <c r="BJ11" s="328"/>
     </row>
-    <row r="12" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" ht="12">
       <c r="A12" s="41">
         <v>5</v>
       </c>
       <c r="B12" s="329" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="330"/>
       <c r="D12" s="330"/>
@@ -13817,13 +13405,13 @@
       <c r="K12" s="330"/>
       <c r="L12" s="331"/>
       <c r="M12" s="308" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N12" s="309"/>
       <c r="O12" s="309"/>
       <c r="P12" s="310"/>
       <c r="Q12" s="311" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R12" s="312"/>
       <c r="S12" s="312"/>
@@ -13834,32 +13422,32 @@
       </c>
       <c r="W12" s="357"/>
       <c r="X12" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y12" s="315"/>
       <c r="Z12" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA12" s="317"/>
       <c r="AB12" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC12" s="310"/>
       <c r="AD12" s="308" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE12" s="309"/>
       <c r="AF12" s="309"/>
       <c r="AG12" s="310"/>
       <c r="AH12" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI12" s="303"/>
       <c r="AJ12" s="303"/>
       <c r="AK12" s="303"/>
       <c r="AL12" s="304"/>
       <c r="AM12" s="318" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN12" s="319"/>
       <c r="AO12" s="319"/>
@@ -13885,12 +13473,12 @@
       <c r="BI12" s="309"/>
       <c r="BJ12" s="328"/>
     </row>
-    <row r="13" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" ht="12">
       <c r="A13" s="41">
         <v>6</v>
       </c>
       <c r="B13" s="329" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="330"/>
       <c r="D13" s="330"/>
@@ -13903,13 +13491,13 @@
       <c r="K13" s="330"/>
       <c r="L13" s="331"/>
       <c r="M13" s="308" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N13" s="309"/>
       <c r="O13" s="309"/>
       <c r="P13" s="310"/>
       <c r="Q13" s="311" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R13" s="312"/>
       <c r="S13" s="312"/>
@@ -13920,15 +13508,15 @@
         <v>10</v>
       </c>
       <c r="X13" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y13" s="315"/>
       <c r="Z13" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA13" s="317"/>
       <c r="AB13" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC13" s="310"/>
       <c r="AD13" s="308" t="s">
@@ -13938,14 +13526,14 @@
       <c r="AF13" s="309"/>
       <c r="AG13" s="310"/>
       <c r="AH13" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI13" s="303"/>
       <c r="AJ13" s="303"/>
       <c r="AK13" s="303"/>
       <c r="AL13" s="304"/>
       <c r="AM13" s="318" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AN13" s="319"/>
       <c r="AO13" s="319"/>
@@ -13971,12 +13559,12 @@
       <c r="BI13" s="309"/>
       <c r="BJ13" s="328"/>
     </row>
-    <row r="14" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" ht="21.75">
       <c r="A14" s="41">
         <v>7</v>
       </c>
       <c r="B14" s="329" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="330"/>
       <c r="D14" s="330"/>
@@ -13989,13 +13577,13 @@
       <c r="K14" s="330"/>
       <c r="L14" s="331"/>
       <c r="M14" s="321" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" s="322"/>
       <c r="O14" s="322"/>
       <c r="P14" s="323"/>
       <c r="Q14" s="311" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R14" s="312"/>
       <c r="S14" s="312"/>
@@ -14006,15 +13594,15 @@
         <v>2</v>
       </c>
       <c r="X14" s="314" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="315"/>
       <c r="Z14" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA14" s="317"/>
       <c r="AB14" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC14" s="310"/>
       <c r="AD14" s="308" t="s">
@@ -14024,14 +13612,14 @@
       <c r="AF14" s="309"/>
       <c r="AG14" s="310"/>
       <c r="AH14" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI14" s="303"/>
       <c r="AJ14" s="303"/>
       <c r="AK14" s="303"/>
       <c r="AL14" s="304"/>
       <c r="AM14" s="318" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AN14" s="319"/>
       <c r="AO14" s="319"/>
@@ -14057,12 +13645,12 @@
       <c r="BI14" s="309"/>
       <c r="BJ14" s="328"/>
     </row>
-    <row r="15" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" ht="12">
       <c r="A15" s="41">
         <v>8</v>
       </c>
       <c r="B15" s="329" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="330"/>
       <c r="D15" s="330"/>
@@ -14075,13 +13663,13 @@
       <c r="K15" s="330"/>
       <c r="L15" s="331"/>
       <c r="M15" s="321" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N15" s="322"/>
       <c r="O15" s="322"/>
       <c r="P15" s="323"/>
       <c r="Q15" s="311" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="R15" s="312"/>
       <c r="S15" s="312"/>
@@ -14092,15 +13680,15 @@
         <v>8</v>
       </c>
       <c r="X15" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y15" s="315"/>
       <c r="Z15" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA15" s="317"/>
       <c r="AB15" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC15" s="310"/>
       <c r="AD15" s="308" t="s">
@@ -14110,14 +13698,14 @@
       <c r="AF15" s="309"/>
       <c r="AG15" s="310"/>
       <c r="AH15" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI15" s="303"/>
       <c r="AJ15" s="303"/>
       <c r="AK15" s="303"/>
       <c r="AL15" s="304"/>
       <c r="AM15" s="318" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AN15" s="319"/>
       <c r="AO15" s="319"/>
@@ -14143,12 +13731,12 @@
       <c r="BI15" s="309"/>
       <c r="BJ15" s="328"/>
     </row>
-    <row r="16" spans="1:64" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" ht="39">
       <c r="A16" s="41">
         <v>9</v>
       </c>
       <c r="B16" s="329" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="330"/>
       <c r="D16" s="330"/>
@@ -14161,13 +13749,13 @@
       <c r="K16" s="330"/>
       <c r="L16" s="331"/>
       <c r="M16" s="321" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N16" s="322"/>
       <c r="O16" s="322"/>
       <c r="P16" s="323"/>
       <c r="Q16" s="360" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R16" s="303"/>
       <c r="S16" s="303"/>
@@ -14178,15 +13766,15 @@
         <v>2</v>
       </c>
       <c r="X16" s="314" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="315"/>
       <c r="Z16" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA16" s="317"/>
       <c r="AB16" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC16" s="310"/>
       <c r="AD16" s="308" t="s">
@@ -14196,14 +13784,14 @@
       <c r="AF16" s="309"/>
       <c r="AG16" s="310"/>
       <c r="AH16" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI16" s="303"/>
       <c r="AJ16" s="303"/>
       <c r="AK16" s="303"/>
       <c r="AL16" s="304"/>
       <c r="AM16" s="318" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AN16" s="319"/>
       <c r="AO16" s="319"/>
@@ -14229,12 +13817,12 @@
       <c r="BI16" s="309"/>
       <c r="BJ16" s="328"/>
     </row>
-    <row r="17" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="41">
         <v>10</v>
       </c>
       <c r="B17" s="329" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="330"/>
       <c r="D17" s="330"/>
@@ -14247,13 +13835,13 @@
       <c r="K17" s="330"/>
       <c r="L17" s="331"/>
       <c r="M17" s="308" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N17" s="309"/>
       <c r="O17" s="309"/>
       <c r="P17" s="310"/>
       <c r="Q17" s="311" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="R17" s="312"/>
       <c r="S17" s="312"/>
@@ -14264,32 +13852,32 @@
         <v>7</v>
       </c>
       <c r="X17" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y17" s="315"/>
       <c r="Z17" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA17" s="317"/>
       <c r="AB17" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC17" s="310"/>
       <c r="AD17" s="308" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE17" s="309"/>
       <c r="AF17" s="309"/>
       <c r="AG17" s="310"/>
       <c r="AH17" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI17" s="303"/>
       <c r="AJ17" s="303"/>
       <c r="AK17" s="303"/>
       <c r="AL17" s="304"/>
       <c r="AM17" s="318" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AN17" s="319"/>
       <c r="AO17" s="319"/>
@@ -14315,12 +13903,12 @@
       <c r="BI17" s="309"/>
       <c r="BJ17" s="328"/>
     </row>
-    <row r="18" spans="1:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" ht="19.5">
       <c r="A18" s="41">
         <v>11</v>
       </c>
       <c r="B18" s="329" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="330"/>
       <c r="D18" s="330"/>
@@ -14333,13 +13921,13 @@
       <c r="K18" s="330"/>
       <c r="L18" s="331"/>
       <c r="M18" s="308" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N18" s="309"/>
       <c r="O18" s="309"/>
       <c r="P18" s="310"/>
       <c r="Q18" s="360" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R18" s="303"/>
       <c r="S18" s="303"/>
@@ -14350,15 +13938,15 @@
         <v>200</v>
       </c>
       <c r="X18" s="314" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Y18" s="315"/>
       <c r="Z18" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA18" s="317"/>
       <c r="AB18" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC18" s="310"/>
       <c r="AD18" s="308" t="s">
@@ -14368,14 +13956,14 @@
       <c r="AF18" s="309"/>
       <c r="AG18" s="310"/>
       <c r="AH18" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI18" s="303"/>
       <c r="AJ18" s="303"/>
       <c r="AK18" s="303"/>
       <c r="AL18" s="304"/>
       <c r="AM18" s="318" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AN18" s="319"/>
       <c r="AO18" s="319"/>
@@ -14401,12 +13989,12 @@
       <c r="BI18" s="309"/>
       <c r="BJ18" s="328"/>
     </row>
-    <row r="19" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" ht="12">
       <c r="A19" s="41">
         <v>12</v>
       </c>
       <c r="B19" s="329" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="330"/>
       <c r="D19" s="330"/>
@@ -14419,13 +14007,13 @@
       <c r="K19" s="330"/>
       <c r="L19" s="331"/>
       <c r="M19" s="308" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N19" s="309"/>
       <c r="O19" s="309"/>
       <c r="P19" s="310"/>
       <c r="Q19" s="311" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R19" s="312"/>
       <c r="S19" s="312"/>
@@ -14436,15 +14024,15 @@
       </c>
       <c r="W19" s="357"/>
       <c r="X19" s="314" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y19" s="315"/>
       <c r="Z19" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA19" s="317"/>
       <c r="AB19" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC19" s="310"/>
       <c r="AD19" s="308" t="s">
@@ -14454,14 +14042,14 @@
       <c r="AF19" s="309"/>
       <c r="AG19" s="310"/>
       <c r="AH19" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI19" s="303"/>
       <c r="AJ19" s="303"/>
       <c r="AK19" s="303"/>
       <c r="AL19" s="304"/>
       <c r="AM19" s="318" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AN19" s="319"/>
       <c r="AO19" s="319"/>
@@ -14487,12 +14075,12 @@
       <c r="BI19" s="78"/>
       <c r="BJ19" s="79"/>
     </row>
-    <row r="20" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="41">
         <v>13</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
@@ -14505,13 +14093,13 @@
       <c r="K20" s="81"/>
       <c r="L20" s="47"/>
       <c r="M20" s="321" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N20" s="322"/>
       <c r="O20" s="322"/>
       <c r="P20" s="323"/>
       <c r="Q20" s="324" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R20" s="325"/>
       <c r="S20" s="325"/>
@@ -14522,15 +14110,15 @@
         <v>1</v>
       </c>
       <c r="X20" s="314" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y20" s="315"/>
       <c r="Z20" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA20" s="317"/>
       <c r="AB20" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC20" s="310"/>
       <c r="AD20" s="308" t="s">
@@ -14540,14 +14128,14 @@
       <c r="AF20" s="309"/>
       <c r="AG20" s="310"/>
       <c r="AH20" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI20" s="303"/>
       <c r="AJ20" s="303"/>
       <c r="AK20" s="303"/>
       <c r="AL20" s="304"/>
       <c r="AM20" s="305" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AN20" s="306"/>
       <c r="AO20" s="306"/>
@@ -14573,12 +14161,12 @@
       <c r="BI20" s="78"/>
       <c r="BJ20" s="79"/>
     </row>
-    <row r="21" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" ht="15">
       <c r="A21" s="41">
         <v>14</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -14591,13 +14179,13 @@
       <c r="K21" s="81"/>
       <c r="L21" s="47"/>
       <c r="M21" s="321" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N21" s="322"/>
       <c r="O21" s="322"/>
       <c r="P21" s="323"/>
       <c r="Q21" s="324" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R21" s="325"/>
       <c r="S21" s="325"/>
@@ -14608,15 +14196,15 @@
         <v>40</v>
       </c>
       <c r="X21" s="314" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="315"/>
       <c r="Z21" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA21" s="317"/>
       <c r="AB21" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC21" s="310"/>
       <c r="AD21" s="308" t="s">
@@ -14626,14 +14214,14 @@
       <c r="AF21" s="309"/>
       <c r="AG21" s="310"/>
       <c r="AH21" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI21" s="303"/>
       <c r="AJ21" s="303"/>
       <c r="AK21" s="303"/>
       <c r="AL21" s="304"/>
       <c r="AM21" s="305" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AN21" s="306"/>
       <c r="AO21" s="306"/>
@@ -14659,12 +14247,12 @@
       <c r="BI21" s="78"/>
       <c r="BJ21" s="79"/>
     </row>
-    <row r="22" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" ht="12">
       <c r="A22" s="41">
         <v>15</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
@@ -14677,13 +14265,13 @@
       <c r="K22" s="81"/>
       <c r="L22" s="47"/>
       <c r="M22" s="321" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N22" s="322"/>
       <c r="O22" s="322"/>
       <c r="P22" s="323"/>
       <c r="Q22" s="324" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="R22" s="325"/>
       <c r="S22" s="325"/>
@@ -14694,15 +14282,15 @@
         <v>6</v>
       </c>
       <c r="X22" s="314" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y22" s="315"/>
       <c r="Z22" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA22" s="317"/>
       <c r="AB22" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC22" s="310"/>
       <c r="AD22" s="308" t="s">
@@ -14712,14 +14300,14 @@
       <c r="AF22" s="309"/>
       <c r="AG22" s="310"/>
       <c r="AH22" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI22" s="303"/>
       <c r="AJ22" s="303"/>
       <c r="AK22" s="303"/>
       <c r="AL22" s="304"/>
       <c r="AM22" s="305" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="AN22" s="306"/>
       <c r="AO22" s="306"/>
@@ -14745,12 +14333,12 @@
       <c r="BI22" s="78"/>
       <c r="BJ22" s="79"/>
     </row>
-    <row r="23" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="41">
         <v>16</v>
       </c>
       <c r="B23" s="329" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="330"/>
       <c r="D23" s="330"/>
@@ -14763,13 +14351,13 @@
       <c r="K23" s="330"/>
       <c r="L23" s="331"/>
       <c r="M23" s="308" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N23" s="309"/>
       <c r="O23" s="309"/>
       <c r="P23" s="310"/>
       <c r="Q23" s="311" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="R23" s="312"/>
       <c r="S23" s="312"/>
@@ -14780,15 +14368,15 @@
         <v>12</v>
       </c>
       <c r="X23" s="314" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Y23" s="315"/>
       <c r="Z23" s="316" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA23" s="317"/>
       <c r="AB23" s="308" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AC23" s="310"/>
       <c r="AD23" s="308" t="s">
@@ -14798,14 +14386,14 @@
       <c r="AF23" s="309"/>
       <c r="AG23" s="310"/>
       <c r="AH23" s="302" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI23" s="303"/>
       <c r="AJ23" s="303"/>
       <c r="AK23" s="303"/>
       <c r="AL23" s="304"/>
       <c r="AM23" s="318" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="AN23" s="319"/>
       <c r="AO23" s="319"/>
@@ -14831,76 +14419,44 @@
       <c r="BI23" s="309"/>
       <c r="BJ23" s="328"/>
     </row>
-    <row r="24" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" ht="12">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" ht="12">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" ht="12">
       <c r="A26" s="332"/>
       <c r="B26" s="332"/>
     </row>
-    <row r="27" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="332"/>
       <c r="B27" s="332"/>
     </row>
-    <row r="28" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" ht="12">
       <c r="A28" s="332"/>
       <c r="B28" s="332"/>
     </row>
-    <row r="29" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" ht="12">
       <c r="A29" s="332"/>
       <c r="B29" s="332"/>
     </row>
-    <row r="30" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" ht="12">
       <c r="A30" s="332"/>
       <c r="B30" s="332"/>
     </row>
-    <row r="31" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" ht="12">
       <c r="A31" s="332"/>
       <c r="B31" s="332"/>
     </row>
-    <row r="32" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" customHeight="1" ht="30">
       <c r="A32" s="332"/>
       <c r="B32" s="332"/>
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="AT11:BJ11"/>
-    <mergeCell ref="AT13:BJ13"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="AT23:BJ23"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:BJ12"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="AM11:AS11"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -14910,32 +14466,80 @@
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A6:AG6"/>
+    <mergeCell ref="AH6:AS6"/>
+    <mergeCell ref="AT6:BJ7"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AM7:AS7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AH8:AL8"/>
     <mergeCell ref="AM8:AS8"/>
     <mergeCell ref="AT8:BJ8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="V9:W9"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="V9:W9"/>
     <mergeCell ref="AH9:AL9"/>
     <mergeCell ref="AM9:AS9"/>
     <mergeCell ref="AT9:BJ9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AS10"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="AM11:AS11"/>
+    <mergeCell ref="AT11:BJ11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="Z12:AA12"/>
     <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="AD12:AG12"/>
     <mergeCell ref="AH12:AL12"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AS10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:BJ12"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="Q13:U13"/>
@@ -14945,8 +14549,7 @@
     <mergeCell ref="AD13:AG13"/>
     <mergeCell ref="AH13:AL13"/>
     <mergeCell ref="AM13:AS13"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="AT15:BJ15"/>
+    <mergeCell ref="AT13:BJ13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="M14:P14"/>
     <mergeCell ref="Q14:U14"/>
@@ -14965,7 +14568,8 @@
     <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="AH15:AL15"/>
-    <mergeCell ref="AT17:BJ17"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="AT15:BJ15"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="Q16:U16"/>
@@ -14985,64 +14589,33 @@
     <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="AH17:AL17"/>
     <mergeCell ref="AM17:AS17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="AT17:BJ17"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="Q18:U18"/>
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AH18:AL18"/>
+    <mergeCell ref="AM18:AS18"/>
+    <mergeCell ref="AT18:BJ18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AH19:AL19"/>
+    <mergeCell ref="AM19:AS19"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A6:AG6"/>
-    <mergeCell ref="AH6:AS6"/>
-    <mergeCell ref="AT6:BJ7"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="AM7:AS7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AH18:AL18"/>
-    <mergeCell ref="AM18:AS18"/>
-    <mergeCell ref="AT18:BJ18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="AH19:AL19"/>
-    <mergeCell ref="AM19:AS19"/>
-    <mergeCell ref="M18:P18"/>
     <mergeCell ref="AH20:AL20"/>
     <mergeCell ref="AM20:AS20"/>
     <mergeCell ref="M21:P21"/>
@@ -15053,8 +14626,15 @@
     <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="AH21:AL21"/>
     <mergeCell ref="AM21:AS21"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
     <mergeCell ref="AH22:AL22"/>
     <mergeCell ref="AM22:AS22"/>
+    <mergeCell ref="B23:L23"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="Q23:U23"/>
     <mergeCell ref="X23:Y23"/>
@@ -15063,6 +14643,14 @@
     <mergeCell ref="AD23:AG23"/>
     <mergeCell ref="AH23:AL23"/>
     <mergeCell ref="AM23:AS23"/>
+    <mergeCell ref="AT23:BJ23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15073,25 +14661,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="U20" sqref="U20:BC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.09765625" style="24"/>
-    <col min="2" max="9" width="2.3984375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="2.3984375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="2.3984375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="2.3984375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="2.3984375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="2.3984375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="2.3984375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="2.3984375" style="24" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="24" customWidth="1"/>
-    <col min="11" max="12" width="2.3984375" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="2.3984375" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.3984375" style="24" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="2.69921875" style="24" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="2.3984375" style="24" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="24" customWidth="1"/>
     <col min="16" max="19" width="2.09765625" style="24"/>
     <col min="20" max="20" width="21.09765625" style="24" customWidth="1"/>
     <col min="21" max="21" width="0.3984375" style="24" customWidth="1"/>
-    <col min="22" max="32" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="2.09765625" style="24" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="2.09765625" style="24" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="1.69921875" style="24" customWidth="1"/>
-    <col min="34" max="54" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="21.3984375" style="24" customWidth="1"/>
     <col min="56" max="310" width="2.09765625" style="24"/>
     <col min="311" max="311" width="1.8984375" style="24" customWidth="1"/>
@@ -15222,7 +14848,7 @@
     <col min="16184" max="16384" width="2.09765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="1" ht="10.5">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -15281,7 +14907,7 @@
       <c r="BB1" s="21"/>
       <c r="BC1" s="23"/>
     </row>
-    <row r="2" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="2" ht="10.5">
       <c r="A2" s="237" t="s">
         <v>33</v>
       </c>
@@ -15334,7 +14960,7 @@
       <c r="BB2" s="26"/>
       <c r="BC2" s="27"/>
     </row>
-    <row r="3" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="3" ht="10.5">
       <c r="A3" s="380"/>
       <c r="B3" s="381"/>
       <c r="C3" s="381"/>
@@ -15391,7 +15017,7 @@
       <c r="BB3" s="39"/>
       <c r="BC3" s="40"/>
     </row>
-    <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" ht="18">
       <c r="A4" s="382" t="s">
         <v>9</v>
       </c>
@@ -15401,7 +15027,7 @@
       <c r="E4" s="383"/>
       <c r="F4" s="384"/>
       <c r="G4" s="385" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="386"/>
       <c r="I4" s="386"/>
@@ -15420,7 +15046,7 @@
       <c r="T4" s="389"/>
       <c r="U4" s="390"/>
       <c r="V4" s="391" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W4" s="392"/>
       <c r="X4" s="392"/>
@@ -15464,7 +15090,7 @@
       <c r="BB4" s="269"/>
       <c r="BC4" s="407"/>
     </row>
-    <row r="5" spans="1:55" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" ht="18">
       <c r="A5" s="276" t="s">
         <v>13</v>
       </c>
@@ -15531,7 +15157,7 @@
       <c r="BB5" s="282"/>
       <c r="BC5" s="283"/>
     </row>
-    <row r="6" spans="1:55" s="35" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" ht="12" customFormat="1" s="35">
       <c r="A6" s="44"/>
       <c r="B6" s="104"/>
       <c r="C6" s="105"/>
@@ -15587,7 +15213,7 @@
       <c r="BB6" s="49"/>
       <c r="BC6" s="50"/>
     </row>
-    <row r="7" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" customHeight="1" ht="18">
       <c r="A7" s="102" t="s">
         <v>0</v>
       </c>
@@ -15652,12 +15278,12 @@
       <c r="BB7" s="409"/>
       <c r="BC7" s="410"/>
     </row>
-    <row r="8" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="8" ht="10.5">
       <c r="A8" s="139">
         <v>1</v>
       </c>
       <c r="B8" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C8" s="401"/>
       <c r="D8" s="401"/>
@@ -15673,14 +15299,14 @@
       <c r="N8" s="401"/>
       <c r="O8" s="402"/>
       <c r="P8" s="97" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="97"/>
       <c r="R8" s="97"/>
       <c r="S8" s="97"/>
       <c r="T8" s="98"/>
       <c r="U8" s="403" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="V8" s="404"/>
       <c r="W8" s="404"/>
@@ -15717,12 +15343,12 @@
       <c r="BB8" s="404"/>
       <c r="BC8" s="405"/>
     </row>
-    <row r="9" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
+    <row r="9" ht="10.5">
       <c r="A9" s="103">
         <v>2</v>
       </c>
       <c r="B9" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C9" s="401"/>
       <c r="D9" s="401"/>
@@ -15738,14 +15364,14 @@
       <c r="N9" s="401"/>
       <c r="O9" s="402"/>
       <c r="P9" s="99" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="97"/>
       <c r="R9" s="97"/>
       <c r="S9" s="97"/>
       <c r="T9" s="98"/>
       <c r="U9" s="403" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="V9" s="404"/>
       <c r="W9" s="404"/>
@@ -15782,12 +15408,12 @@
       <c r="BB9" s="404"/>
       <c r="BC9" s="405"/>
     </row>
-    <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="139">
         <v>3</v>
       </c>
       <c r="B10" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C10" s="401"/>
       <c r="D10" s="401"/>
@@ -15803,14 +15429,14 @@
       <c r="N10" s="401"/>
       <c r="O10" s="402"/>
       <c r="P10" s="97" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="97"/>
       <c r="R10" s="97"/>
       <c r="S10" s="97"/>
       <c r="T10" s="98"/>
       <c r="U10" s="403" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="V10" s="404"/>
       <c r="W10" s="404"/>
@@ -15847,12 +15473,12 @@
       <c r="BB10" s="404"/>
       <c r="BC10" s="405"/>
     </row>
-    <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="139">
         <v>5</v>
       </c>
       <c r="B11" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C11" s="401"/>
       <c r="D11" s="401"/>
@@ -15868,14 +15494,14 @@
       <c r="N11" s="401"/>
       <c r="O11" s="402"/>
       <c r="P11" s="97" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="97"/>
       <c r="R11" s="97"/>
       <c r="S11" s="97"/>
       <c r="T11" s="98"/>
       <c r="U11" s="403" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="V11" s="404"/>
       <c r="W11" s="404"/>
@@ -15912,12 +15538,12 @@
       <c r="BB11" s="404"/>
       <c r="BC11" s="405"/>
     </row>
-    <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="139">
         <v>7</v>
       </c>
       <c r="B12" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12" s="401"/>
       <c r="D12" s="401"/>
@@ -15933,14 +15559,14 @@
       <c r="N12" s="401"/>
       <c r="O12" s="402"/>
       <c r="P12" s="100" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="100"/>
       <c r="R12" s="100"/>
       <c r="S12" s="100"/>
       <c r="T12" s="101"/>
       <c r="U12" s="403" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="V12" s="404"/>
       <c r="W12" s="404"/>
@@ -15977,12 +15603,12 @@
       <c r="BB12" s="404"/>
       <c r="BC12" s="405"/>
     </row>
-    <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="103">
         <v>8</v>
       </c>
       <c r="B13" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C13" s="401"/>
       <c r="D13" s="401"/>
@@ -15998,14 +15624,14 @@
       <c r="N13" s="401"/>
       <c r="O13" s="402"/>
       <c r="P13" s="100" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="100"/>
       <c r="R13" s="100"/>
       <c r="S13" s="100"/>
       <c r="T13" s="101"/>
       <c r="U13" s="403" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="V13" s="404"/>
       <c r="W13" s="404"/>
@@ -16042,12 +15668,12 @@
       <c r="BB13" s="404"/>
       <c r="BC13" s="405"/>
     </row>
-    <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="139">
         <v>9</v>
       </c>
       <c r="B14" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C14" s="401"/>
       <c r="D14" s="401"/>
@@ -16063,14 +15689,14 @@
       <c r="N14" s="401"/>
       <c r="O14" s="402"/>
       <c r="P14" s="100" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="100"/>
       <c r="R14" s="100"/>
       <c r="S14" s="100"/>
       <c r="T14" s="101"/>
       <c r="U14" s="403" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="V14" s="404"/>
       <c r="W14" s="404"/>
@@ -16107,12 +15733,12 @@
       <c r="BB14" s="404"/>
       <c r="BC14" s="405"/>
     </row>
-    <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="103">
         <v>10</v>
       </c>
       <c r="B15" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C15" s="401"/>
       <c r="D15" s="401"/>
@@ -16128,14 +15754,14 @@
       <c r="N15" s="401"/>
       <c r="O15" s="402"/>
       <c r="P15" s="138" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="100"/>
       <c r="R15" s="100"/>
       <c r="S15" s="100"/>
       <c r="T15" s="101"/>
       <c r="U15" s="403" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="V15" s="404"/>
       <c r="W15" s="404"/>
@@ -16172,12 +15798,12 @@
       <c r="BB15" s="404"/>
       <c r="BC15" s="405"/>
     </row>
-    <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="139">
         <v>11</v>
       </c>
       <c r="B16" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C16" s="401"/>
       <c r="D16" s="401"/>
@@ -16193,14 +15819,14 @@
       <c r="N16" s="401"/>
       <c r="O16" s="402"/>
       <c r="P16" s="100" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="100"/>
       <c r="R16" s="100"/>
       <c r="S16" s="100"/>
       <c r="T16" s="101"/>
       <c r="U16" s="403" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="V16" s="404"/>
       <c r="W16" s="404"/>
@@ -16237,12 +15863,12 @@
       <c r="BB16" s="404"/>
       <c r="BC16" s="405"/>
     </row>
-    <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="103">
         <v>12</v>
       </c>
       <c r="B17" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C17" s="401"/>
       <c r="D17" s="401"/>
@@ -16258,14 +15884,14 @@
       <c r="N17" s="401"/>
       <c r="O17" s="402"/>
       <c r="P17" s="100" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="100"/>
       <c r="R17" s="100"/>
       <c r="S17" s="100"/>
       <c r="T17" s="101"/>
       <c r="U17" s="403" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="V17" s="404"/>
       <c r="W17" s="404"/>
@@ -16302,12 +15928,12 @@
       <c r="BB17" s="404"/>
       <c r="BC17" s="405"/>
     </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="139">
         <v>13</v>
       </c>
       <c r="B18" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C18" s="401"/>
       <c r="D18" s="401"/>
@@ -16323,14 +15949,14 @@
       <c r="N18" s="401"/>
       <c r="O18" s="402"/>
       <c r="P18" s="100" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="100"/>
       <c r="R18" s="100"/>
       <c r="S18" s="100"/>
       <c r="T18" s="101"/>
       <c r="U18" s="403" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="V18" s="404"/>
       <c r="W18" s="404"/>
@@ -16367,12 +15993,12 @@
       <c r="BB18" s="404"/>
       <c r="BC18" s="405"/>
     </row>
-    <row r="19" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="103">
         <v>14</v>
       </c>
       <c r="B19" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C19" s="401"/>
       <c r="D19" s="401"/>
@@ -16388,14 +16014,14 @@
       <c r="N19" s="401"/>
       <c r="O19" s="402"/>
       <c r="P19" s="100" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="100"/>
       <c r="R19" s="100"/>
       <c r="S19" s="100"/>
       <c r="T19" s="101"/>
       <c r="U19" s="403" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="V19" s="404"/>
       <c r="W19" s="404"/>
@@ -16432,12 +16058,12 @@
       <c r="BB19" s="404"/>
       <c r="BC19" s="405"/>
     </row>
-    <row r="20" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="139">
         <v>15</v>
       </c>
       <c r="B20" s="400" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C20" s="401"/>
       <c r="D20" s="401"/>
@@ -16453,14 +16079,14 @@
       <c r="N20" s="401"/>
       <c r="O20" s="402"/>
       <c r="P20" s="100" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="100"/>
       <c r="R20" s="100"/>
       <c r="S20" s="100"/>
       <c r="T20" s="101"/>
       <c r="U20" s="403" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="V20" s="404"/>
       <c r="W20" s="404"/>
@@ -16499,52 +16125,52 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="U15:BC15"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B9:O9"/>
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="V4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:BC4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AK5"/>
     <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="U7:BC7"/>
-    <mergeCell ref="U8:BC8"/>
-    <mergeCell ref="U10:BC10"/>
-    <mergeCell ref="U11:BC11"/>
-    <mergeCell ref="U9:BC9"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:BC4"/>
     <mergeCell ref="AO5:AT5"/>
     <mergeCell ref="AU5:AW5"/>
     <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:BC7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="U8:BC8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="U9:BC9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="U10:BC10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="U11:BC11"/>
+    <mergeCell ref="B12:O12"/>
     <mergeCell ref="U12:BC12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="U13:BC13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="U14:BC14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="U15:BC15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="U16:BC16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="U17:BC17"/>
+    <mergeCell ref="B18:O18"/>
     <mergeCell ref="U18:BC18"/>
+    <mergeCell ref="B19:O19"/>
     <mergeCell ref="U19:BC19"/>
-    <mergeCell ref="U16:BC16"/>
-    <mergeCell ref="U14:BC14"/>
-    <mergeCell ref="U13:BC13"/>
+    <mergeCell ref="B20:O20"/>
     <mergeCell ref="U20:BC20"/>
-    <mergeCell ref="U17:BC17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
